--- a/biology/Médecine/Claude-Antoine_Bouchet/Claude-Antoine_Bouchet.xlsx
+++ b/biology/Médecine/Claude-Antoine_Bouchet/Claude-Antoine_Bouchet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude-Antoine Bouchet est un médecin français, né le 17 février 1785 à Lyon et mort le 25 novembre 1839.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Pierre Bouchet (1752-1794), chirurgien en chef de l'Hôtel-Dieu de Lyon et de Constance Floret. Cette dernière élevant seule leurs cinq enfants à la mort de Pierre Bouchet, son mari, fait suivre à son fils aîné Claude-Antoine des études de médecine à Paris pour qu'il perpétue l'activité de son père. Il obtient son doctorat en 1808 et est immédiatement nommé chirurgien à l'Hôtel-Dieu de Lyon dont il devient chef le 1er janvier 1812[1].  
-Quand le colonel Mallet lui propose de devenir le médecin de Napoléon, il refuse pour ne pas quitter sa ville natale et sa famille[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Pierre Bouchet (1752-1794), chirurgien en chef de l'Hôtel-Dieu de Lyon et de Constance Floret. Cette dernière élevant seule leurs cinq enfants à la mort de Pierre Bouchet, son mari, fait suivre à son fils aîné Claude-Antoine des études de médecine à Paris pour qu'il perpétue l'activité de son père. Il obtient son doctorat en 1808 et est immédiatement nommé chirurgien à l'Hôtel-Dieu de Lyon dont il devient chef le 1er janvier 1812.  
+Quand le colonel Mallet lui propose de devenir le médecin de Napoléon, il refuse pour ne pas quitter sa ville natale et sa famille. 
 Il est l'un des premiers français à ligaturer, en 1812, l'artère iliaque lors d'un anévrysme. Sa générosité est célèbre.
 </t>
         </is>
